--- a/sudoku.xlsx
+++ b/sudoku.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jimpo\Documents\intro_to_coding\excel\assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53220513-EECC-4762-8E1C-5249073859FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE2D217-1981-4306-993F-F8E8F527CCCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{E47BB76A-7426-4517-B560-0BAC3E8D0B97}"/>
   </bookViews>
@@ -36,9 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>SUDOKOOL</t>
+  </si>
+  <si>
+    <t>*Now with conditional formatting for errors :)</t>
   </si>
 </sst>
 </file>
@@ -189,7 +192,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -215,88 +218,718 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+  <dxfs count="120">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC5C5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9F9F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC5C5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9F9F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFE8A8A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9797"/>
         </patternFill>
       </fill>
     </dxf>
@@ -430,8 +1063,15 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFC5C5"/>
+      <color rgb="FFFF8F8F"/>
+      <color rgb="FFFF9F9F"/>
+      <color rgb="FFFE8A8A"/>
+      <color rgb="FFFF9797"/>
+      <color rgb="FFFFD3D3"/>
+      <color rgb="FFFEACAC"/>
+      <color rgb="FFFCAEA6"/>
       <color rgb="FFFFB7B7"/>
-      <color rgb="FFFF9F9F"/>
     </mruColors>
   </colors>
   <extLst>
@@ -742,10 +1382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F43964F4-5D6E-40A1-9D88-312F45847077}">
-  <dimension ref="A1:V11"/>
+  <dimension ref="A1:V14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1424,98 +2064,108 @@
         <v>You did it!</v>
       </c>
     </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:V1"/>
   </mergeCells>
   <conditionalFormatting sqref="B2 E3 D5 F6 H7 G9">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="22" operator="equal">
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3 G2 J4 C7 H5">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+  <conditionalFormatting sqref="C4 I7 D10">
+    <cfRule type="cellIs" dxfId="36" priority="20" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2 H3 F5 I6 B7 C8 J9">
+    <cfRule type="cellIs" dxfId="35" priority="19" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3 H4 F9">
+    <cfRule type="cellIs" dxfId="34" priority="14" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2 B3 J4 H5 C7">
+    <cfRule type="cellIs" dxfId="33" priority="21" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4 I7 D10">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+  <conditionalFormatting sqref="G3 D4 H8 E10">
+    <cfRule type="cellIs" dxfId="32" priority="16" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4 H6 E7 F8 J10">
+    <cfRule type="cellIs" dxfId="31" priority="15" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2 F3 B4 J7 C9 H10">
+    <cfRule type="cellIs" dxfId="30" priority="17" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5 G6 B8 E9">
+    <cfRule type="cellIs" dxfId="29" priority="18" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2 P3 O5 Q6 S7 R9">
+    <cfRule type="cellIs" dxfId="28" priority="13" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N4 T7 O10">
+    <cfRule type="cellIs" dxfId="27" priority="11" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2 H3 B7 F5 I6 C8 J9">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+  <conditionalFormatting sqref="O2 S3 Q5 T6 M7 N8 U9">
+    <cfRule type="cellIs" dxfId="26" priority="10" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6 J5 B8 E9">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+  <conditionalFormatting sqref="O3 S4 Q9 D3 H4 F9">
+    <cfRule type="cellIs" dxfId="25" priority="5" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R2 M3 U4 S5 N7">
+    <cfRule type="cellIs" dxfId="24" priority="12" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R3 O4 S8 P10 D4 G3 E10 H8">
+    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R4 S6 P7 Q8 U10 G4 E7 H6 F8 J10">
+    <cfRule type="cellIs" dxfId="22" priority="6" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T2 Q3 M4 U7 N9 S10">
+    <cfRule type="cellIs" dxfId="21" priority="8" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U5 R6 M8 P9">
+    <cfRule type="cellIs" dxfId="20" priority="9" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4 F3 I2 J7 C9 H10">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4 G3 E10 H8">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4 E7 H6 F8 J10">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3 H4 F9">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2 P3 O5 Q6 S7 R9">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
-      <formula>9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3 R2 U4 N7 S5">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N4 T7 O10">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
-      <formula>7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O2 S3 M7 Q5 T6 N8 U9">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R6 U5 M8 P9">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M4 Q3 T2 U7 N9 S10">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O4 R3 P10 S8">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R4 P7 S6 Q8 U10">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O3 S4 Q9">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>1</formula>
+  <conditionalFormatting sqref="B2:J10">
+    <cfRule type="expression" dxfId="19" priority="1">
+      <formula>AND(B2&lt;&gt;M2, B2 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
